--- a/dados/outputSimulaçõesCopaDoMundo.xlsx
+++ b/dados/outputSimulaçõesCopaDoMundo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2sd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5952</v>
+        <v>0.5916</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2511</v>
+        <v>0.2521</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1122</v>
+        <v>0.1145</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0415</v>
+        <v>0.0418</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8463000000000001</v>
+        <v>0.8437</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5684</v>
+        <v>0.5623</v>
       </c>
       <c r="H2" t="n">
         <v>0.3469</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2174</v>
+        <v>0.2133</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1292</v>
+        <v>0.1291</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5674</v>
+        <v>0.5805</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2664</v>
+        <v>0.254</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1252</v>
+        <v>0.1213</v>
       </c>
       <c r="E3" t="n">
-        <v>0.041</v>
+        <v>0.0442</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8338</v>
+        <v>0.8345</v>
       </c>
       <c r="G3" t="n">
-        <v>0.548</v>
+        <v>0.5412</v>
       </c>
       <c r="H3" t="n">
         <v>0.34</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2091</v>
+        <v>0.2056</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1286</v>
+        <v>0.1238</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5213</v>
+        <v>0.5239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2971</v>
+        <v>0.2975</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1389</v>
+        <v>0.1367</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0427</v>
+        <v>0.0419</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8184</v>
+        <v>0.8214</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4883</v>
+        <v>0.4943</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2989</v>
+        <v>0.3044</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1658</v>
+        <v>0.1727</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0905</v>
+        <v>0.09859999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5152</v>
+        <v>0.5265</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2931</v>
+        <v>0.2934</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1388</v>
+        <v>0.1298</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0529</v>
+        <v>0.0503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8083</v>
+        <v>0.8199</v>
       </c>
       <c r="G5" t="n">
-        <v>0.491</v>
+        <v>0.4882</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2996</v>
+        <v>0.297</v>
       </c>
       <c r="I5" t="n">
-        <v>0.161</v>
+        <v>0.1623</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0881</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4263</v>
+        <v>0.4443</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2819</v>
+        <v>0.2705</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1791</v>
+        <v>0.1754</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1127</v>
+        <v>0.1098</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7082000000000001</v>
+        <v>0.7148</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4553</v>
+        <v>0.467</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2451</v>
+        <v>0.2543</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1317</v>
+        <v>0.1425</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0698</v>
+        <v>0.07530000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4485</v>
+        <v>0.4392</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2871</v>
+        <v>0.2904</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1764</v>
+        <v>0.1796</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7356</v>
+        <v>0.7296</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4054</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2204</v>
+        <v>0.2179</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1183</v>
+        <v>0.1124</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0605</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="8">
@@ -696,31 +696,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5348000000000001</v>
+        <v>0.5332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.283</v>
+        <v>0.2947</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1293</v>
+        <v>0.1261</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0529</v>
+        <v>0.046</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8178</v>
+        <v>0.8279</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4477</v>
+        <v>0.4479</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2222</v>
+        <v>0.227</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1078</v>
+        <v>0.1118</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0539</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +730,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4584</v>
+        <v>0.4615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3299</v>
+        <v>0.3195</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1754</v>
+        <v>0.182</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0363</v>
+        <v>0.037</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7883</v>
+        <v>0.781</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4128</v>
+        <v>0.3988</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2128</v>
+        <v>0.2021</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1085</v>
+        <v>0.1027</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0533</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="10">
@@ -764,133 +764,133 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3306</v>
+        <v>0.3263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3589</v>
+        <v>0.3608</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2058</v>
+        <v>0.2119</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1047</v>
+        <v>0.101</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6895</v>
+        <v>0.6871</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3521</v>
+        <v>0.3533</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1837</v>
+        <v>0.1886</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0881</v>
+        <v>0.0946</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0419</v>
+        <v>0.0423</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>México</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3259</v>
+        <v>0.3077</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3157</v>
+        <v>0.3627</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2266</v>
+        <v>0.2363</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1318</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6415999999999999</v>
+        <v>0.6704</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3186</v>
+        <v>0.333</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1586</v>
+        <v>0.1718</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0794</v>
+        <v>0.0771</v>
       </c>
       <c r="J11" t="n">
-        <v>0.037</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Uruguai</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.312</v>
+        <v>0.3676</v>
       </c>
       <c r="C12" t="n">
-        <v>0.36</v>
+        <v>0.3507</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2366</v>
+        <v>0.2279</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0914</v>
+        <v>0.0538</v>
       </c>
       <c r="F12" t="n">
-        <v>0.672</v>
+        <v>0.7183</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3334</v>
+        <v>0.346</v>
       </c>
       <c r="H12" t="n">
-        <v>0.173</v>
+        <v>0.1602</v>
       </c>
       <c r="I12" t="n">
-        <v>0.077</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0356</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3796</v>
+        <v>0.3342</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3481</v>
+        <v>0.3099</v>
       </c>
       <c r="D13" t="n">
-        <v>0.22</v>
+        <v>0.2234</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0523</v>
+        <v>0.1325</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7277</v>
+        <v>0.6441</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3495</v>
+        <v>0.3258</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1617</v>
+        <v>0.1615</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08260000000000001</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0338</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="14">
@@ -900,99 +900,99 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2488</v>
+        <v>0.2317</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3324</v>
+        <v>0.3502</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2664</v>
+        <v>0.2717</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1524</v>
+        <v>0.1464</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5812</v>
+        <v>0.5819</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2872</v>
+        <v>0.2866</v>
       </c>
       <c r="H14" t="n">
-        <v>0.136</v>
+        <v>0.1368</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.064</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0294</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Estados Unidos</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.227</v>
+        <v>0.2546</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3469</v>
+        <v>0.2804</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2634</v>
+        <v>0.2545</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1627</v>
+        <v>0.2105</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5739</v>
+        <v>0.535</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2877</v>
+        <v>0.2966</v>
       </c>
       <c r="H15" t="n">
-        <v>0.129</v>
+        <v>0.1407</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0606</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0267</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2572</v>
+        <v>0.2233</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2776</v>
+        <v>0.3387</v>
       </c>
       <c r="D16" t="n">
-        <v>0.251</v>
+        <v>0.2724</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2142</v>
+        <v>0.1656</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5348000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.294</v>
+        <v>0.2851</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1356</v>
+        <v>0.1255</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0581</v>
+        <v>0.058</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0258</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="17">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3227</v>
+        <v>0.3181</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3665</v>
+        <v>0.3615</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2039</v>
+        <v>0.2133</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1069</v>
+        <v>0.1071</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6892</v>
+        <v>0.6796</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3098</v>
+        <v>0.3024</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1341</v>
+        <v>0.1224</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0543</v>
+        <v>0.0535</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0213</v>
+        <v>0.0219</v>
       </c>
     </row>
     <row r="18">
@@ -1036,99 +1036,99 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1766</v>
+        <v>0.1643</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2237</v>
+        <v>0.239</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2844</v>
+        <v>0.2815</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3153</v>
+        <v>0.3152</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4003</v>
+        <v>0.4033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1937</v>
+        <v>0.201</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0803</v>
+        <v>0.0822</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0305</v>
+        <v>0.0308</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0112</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Irã</t>
+          <t>Marrocos</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1399</v>
+        <v>0.1387</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2168</v>
+        <v>0.266</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2855</v>
+        <v>0.336</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3578</v>
+        <v>0.2593</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3567</v>
+        <v>0.4047</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1707</v>
+        <v>0.17</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0703</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0265</v>
+        <v>0.0287</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0104</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Marrocos</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1398</v>
+        <v>0.1484</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2712</v>
+        <v>0.2353</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3314</v>
+        <v>0.319</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2576</v>
+        <v>0.2973</v>
       </c>
       <c r="F20" t="n">
-        <v>0.411</v>
+        <v>0.3837</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1665</v>
+        <v>0.1487</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0599</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0271</v>
+        <v>0.0215</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0103</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="21">
@@ -1138,65 +1138,65 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.122</v>
+        <v>0.1291</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2592</v>
+        <v>0.2644</v>
       </c>
       <c r="D21" t="n">
-        <v>0.34</v>
+        <v>0.3335</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2788</v>
+        <v>0.273</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3812</v>
+        <v>0.3935</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1591</v>
+        <v>0.1675</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0577</v>
+        <v>0.0641</v>
       </c>
       <c r="I21" t="n">
-        <v>0.021</v>
+        <v>0.0232</v>
       </c>
       <c r="J21" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.007900000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Irã</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.147</v>
+        <v>0.1368</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2372</v>
+        <v>0.2101</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3197</v>
+        <v>0.2886</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2961</v>
+        <v>0.3645</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3842</v>
+        <v>0.3469</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1465</v>
+        <v>0.1584</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0604</v>
+        <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0231</v>
+        <v>0.0224</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0081</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="23">
@@ -1206,31 +1206,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1374</v>
+        <v>0.1407</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2567</v>
+        <v>0.2524</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3916</v>
+        <v>0.3921</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2143</v>
+        <v>0.2148</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3941</v>
+        <v>0.3931</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1526</v>
+        <v>0.1542</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0654</v>
+        <v>0.0619</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0239</v>
+        <v>0.0234</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0078</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="24">
@@ -1240,31 +1240,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1524</v>
+        <v>0.1582</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2736</v>
+        <v>0.2824</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4334</v>
+        <v>0.4175</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1406</v>
+        <v>0.1419</v>
       </c>
       <c r="F24" t="n">
-        <v>0.426</v>
+        <v>0.4406</v>
       </c>
       <c r="G24" t="n">
-        <v>0.15</v>
+        <v>0.1652</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0524</v>
+        <v>0.0557</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0196</v>
+        <v>0.0216</v>
       </c>
       <c r="J24" t="n">
-        <v>0.006</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="25">
@@ -1274,31 +1274,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.0858</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1947</v>
+        <v>0.1926</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3482</v>
+        <v>0.3485</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3711</v>
+        <v>0.3731</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2807</v>
+        <v>0.2784</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09279999999999999</v>
+        <v>0.0854</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0352</v>
+        <v>0.0307</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0108</v>
+        <v>0.0103</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0036</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="26">
@@ -1308,99 +1308,99 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0786</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.16</v>
+        <v>0.1644</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2773</v>
+        <v>0.278</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4841</v>
+        <v>0.4794</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2386</v>
+        <v>0.2426</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0732</v>
+        <v>0.0759</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0233</v>
+        <v>0.0231</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0068</v>
+        <v>0.007</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Austrália</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.044</v>
+        <v>0.0614</v>
       </c>
       <c r="C27" t="n">
-        <v>0.13</v>
+        <v>0.1532</v>
       </c>
       <c r="D27" t="n">
-        <v>0.277</v>
+        <v>0.3098</v>
       </c>
       <c r="E27" t="n">
-        <v>0.549</v>
+        <v>0.4756</v>
       </c>
       <c r="F27" t="n">
-        <v>0.174</v>
+        <v>0.2146</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0546</v>
+        <v>0.0659</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0168</v>
+        <v>0.0233</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0049</v>
+        <v>0.0063</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0017</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Austrália</t>
+          <t>Equador</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0682</v>
+        <v>0.0882</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1533</v>
+        <v>0.1926</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3072</v>
+        <v>0.3533</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4713</v>
+        <v>0.3659</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2215</v>
+        <v>0.2808</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0664</v>
+        <v>0.0759</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0211</v>
+        <v>0.0183</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0065</v>
+        <v>0.0045</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0016</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="29">
@@ -1410,96 +1410,96 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0558</v>
+        <v>0.056</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1428</v>
+        <v>0.1448</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2844</v>
+        <v>0.2796</v>
       </c>
       <c r="E29" t="n">
-        <v>0.517</v>
+        <v>0.5196</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1986</v>
+        <v>0.2008</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06519999999999999</v>
+        <v>0.0648</v>
       </c>
       <c r="H29" t="n">
-        <v>0.017</v>
+        <v>0.0199</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0044</v>
+        <v>0.0059</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0011</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Catar</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0557</v>
+        <v>0.0491</v>
       </c>
       <c r="C30" t="n">
-        <v>0.154</v>
+        <v>0.1298</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3172</v>
+        <v>0.271</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4731</v>
+        <v>0.5501</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2097</v>
+        <v>0.1789</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0505</v>
+        <v>0.0518</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0134</v>
+        <v>0.015</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0032</v>
+        <v>0.0035</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0011</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Equador</t>
+          <t>Catar</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0868</v>
+        <v>0.0605</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1965</v>
+        <v>0.1512</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3496</v>
+        <v>0.3073</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3671</v>
+        <v>0.481</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2833</v>
+        <v>0.2117</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07829999999999999</v>
+        <v>0.0508</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0201</v>
+        <v>0.0113</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0045</v>
+        <v>0.0018</v>
       </c>
       <c r="J31" t="n">
         <v>0.0007</v>
@@ -1512,31 +1512,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0293</v>
+        <v>0.0277</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0862</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2329</v>
+        <v>0.2349</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6516</v>
+        <v>0.65</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1155</v>
+        <v>0.1151</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0234</v>
+        <v>0.0257</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0066</v>
+        <v>0.008</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0009</v>
+        <v>0.002</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="33">
@@ -1546,28 +1546,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0127</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0484</v>
+        <v>0.0474</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1712</v>
+        <v>0.1726</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7708</v>
+        <v>0.7673</v>
       </c>
       <c r="F33" t="n">
-        <v>0.058</v>
+        <v>0.0601</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0073</v>
+        <v>0.0103</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0013</v>
+        <v>0.0011</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
